--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1335968.143852646</v>
+        <v>1332494.173824346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564199</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.4373943981355</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>61.63425920309689</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>340.0237825764897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>115.436948311607</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V7" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>197.9240804051654</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>28.1137484527827</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>208.997829469025</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3567277916625</v>
+        <v>164.8783252168511</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.0492085588716</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.027083666163</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>184.7135367856378</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480831</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>41.751008370397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>60.44533761123545</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2114886365808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>371.7293199355305</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>60.38235645081252</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>30.47308965960353</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>40.55095684449111</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>65.0588499087778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>334.58170967322</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>16.88986550434897</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>311.4936872159399</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>184.5808806410307</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.71042305649439</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.513456948084</v>
+        <v>301.0683539834538</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>83.5983059739478</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>49.45256041645978</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>202.8369072949871</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>204.853675104788</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="G41" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>190.271393580297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>394.2018941786171</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1060.400888678775</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>691.438371738363</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>333.1726731316125</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036446</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>861.3583373640504</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>443.3945292622373</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>116.1998092982401</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.140060718708</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1447.000728742896</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4404,37 +4404,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4486,7 +4486,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.175505447095</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.175505447095</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E5" t="n">
-        <v>808.3872528488505</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>397.4013480592429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,34 +4729,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>63.50052796378793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
         <v>53.94298182036445</v>
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0200655508536</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>422.9054987607761</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,13 +5063,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
         <v>2256.941971675474</v>
@@ -5115,13 +5115,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
         <v>713.8062203571349</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7239216122612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>215.810828029868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>215.810828029868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>215.810828029868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>215.810828029868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V13" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W13" t="n">
-        <v>513.8405610245969</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X13" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y13" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.95295430729</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.95295430729</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090459</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194383</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548715</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287635</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5416,13 +5416,13 @@
         <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>517.0200655508536</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0200655508536</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="G16" t="n">
         <v>348.0202652891861</v>
@@ -5431,10 +5431,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5492,16 +5492,16 @@
         <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>2540.369809567131</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>2250.95263953017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>840.413048161013</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>840.413048161013</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>429.4271433714054</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5835,13 +5835,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090463</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194388</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>84.72388046642862</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5990,10 +5990,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6026,13 +6026,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.200144220494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>252.6519168570173</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>252.6519168570173</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D25" t="n">
-        <v>252.6519168570173</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="E25" t="n">
-        <v>252.6519168570173</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="F25" t="n">
-        <v>252.6519168570173</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6181,16 +6181,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005474</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>473.4444960005474</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>252.6519168570173</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.944160717209</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1188.678462110459</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>802.8902095122144</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>391.9043047226068</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6303,22 +6303,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.00345202677755</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>71.00345202677755</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>71.00345202677755</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W28" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>252.6519168570173</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6503,10 +6503,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6649,16 +6649,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>609.3508327416152</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6731,19 +6731,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>995.950672805737</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
         <v>266.2060027641994</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>399.5905718782841</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>230.5907716166165</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>72.84239904914665</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6886,22 +6886,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247703</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>1154.826587676351</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090468</v>
+        <v>769.0383350781071</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194392</v>
+        <v>358.0524302884996</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>2268.654643287635</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6990,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2107.405821939171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C37" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>678.176902977687</v>
       </c>
       <c r="S37" t="n">
-        <v>2334.714009270569</v>
+        <v>678.176902977687</v>
       </c>
       <c r="T37" t="n">
-        <v>2107.405821939171</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="U37" t="n">
-        <v>2107.405821939171</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V37" t="n">
-        <v>2107.405821939171</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W37" t="n">
-        <v>2107.405821939171</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X37" t="n">
-        <v>2107.405821939171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y37" t="n">
-        <v>2107.405821939171</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755379</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1800.761432218458</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7263,10 +7263,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="T40" t="n">
-        <v>500.8207968750362</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U40" t="n">
-        <v>308.6274700262513</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
         <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090468</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7485,16 +7485,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>863.1126181035247</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C44" t="n">
-        <v>863.1126181035247</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D44" t="n">
-        <v>863.1126181035247</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E44" t="n">
-        <v>863.1126181035247</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F44" t="n">
-        <v>452.1267133139172</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1639.851790143458</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y44" t="n">
-        <v>1249.712458167646</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>2153.047432775375</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783523</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,10 +10200,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>221.0467526719084</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.4929756741263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>90.29705704176436</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22784,19 +22784,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,10 +22829,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>233.804020405806</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V7" t="n">
-        <v>242.6756726418388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>3.147709480993882</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>31.86743971662685</v>
+        <v>86.34584229143817</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>19.9164132334667</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>92.49591467042799</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>180.5593549853697</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727119</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.8644646478154</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,19 +23941,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>96.92615468724722</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>42.05485008526449</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,25 +24130,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.05160619575665</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,25 +24169,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,22 +24209,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>121.4582265852577</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>126.7588454145598</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>91.11203893301735</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24421,16 +24421,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>79.20246034757503</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>129.5440971422202</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744445</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>74.74425144011366</v>
       </c>
     </row>
     <row r="30">
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,7 +24889,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>139.3418921233264</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,13 +24971,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,19 +25084,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>116.2551987358438</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25126,13 +25126,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.270713072711</v>
+        <v>112.7158160373412</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>83.71149628510311</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>97.21263156369807</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>151.8461343256958</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>7.291863845230949</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="G41" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,22 +25865,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>19.58227584217786</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>39.36125675848751</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,13 +25922,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26080,16 +26080,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X46" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084222</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="C2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>318067.8710173333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>318067.8710173336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>318067.8710173333</v>
+      </c>
+      <c r="G2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="E2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="F2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="G2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="H2" t="n">
-        <v>318067.8710173334</v>
       </c>
       <c r="I2" t="n">
         <v>318067.8710173334</v>
@@ -26338,16 +26338,16 @@
         <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="L2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="M2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="M2" t="n">
-        <v>318067.8710173335</v>
-      </c>
       <c r="N2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="O2" t="n">
         <v>318067.8710173335</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,7 +26485,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26500,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372572.7993208165</v>
+        <v>-372988.0138302837</v>
       </c>
       <c r="C6" t="n">
-        <v>217395.079893728</v>
+        <v>216979.8653842607</v>
       </c>
       <c r="D6" t="n">
-        <v>217395.0798937281</v>
+        <v>216979.8653842606</v>
       </c>
       <c r="E6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842609</v>
       </c>
       <c r="F6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="G6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="H6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="I6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="J6" t="n">
-        <v>74599.46070113497</v>
+        <v>74184.24619166768</v>
       </c>
       <c r="K6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="L6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="M6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="N6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="O6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="P6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842608</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26768,16 +26768,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,16 +26796,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26817,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36212,7 +36212,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,10 +36446,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,13 +36683,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,10 +36920,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L32" t="n">
         <v>421.5361394435301</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37160,7 +37160,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383521.760523812</v>
+        <v>1359742.074468367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826587</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631242</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9900491.0034204</v>
+        <v>11161499.13848754</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>396.6749956049798</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>347.9341481798011</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4249611444376</v>
       </c>
       <c r="I4" t="n">
-        <v>54.47555601903363</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>355.546756558266</v>
+        <v>151.4705587190144</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I7" t="n">
-        <v>22.75446130335983</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>308.169982627957</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>317.0781683602001</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186274</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>275.1653818931072</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>165.1777278244226</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>125.9434024640775</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>121.9033416566368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.09631833451652</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>129.3131516747414</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>32.58786218362063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>97.24018360678589</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.37255160319397</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>103.3388316365583</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.1707519847953</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.6176159584065</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.641263708175</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.678746767763</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4130481610125</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>454.6247955627683</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>454.6247955627683</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.241103772296</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>551.822117562146</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>382.8223173004784</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.083492693021</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.120975752609</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.855277145859</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="E5" t="n">
-        <v>824.0670245476144</v>
+        <v>945.12417093661</v>
       </c>
       <c r="F5" t="n">
-        <v>413.0811197580069</v>
+        <v>534.1382661470025</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F7" t="n">
-        <v>403.67545899633</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G7" t="n">
-        <v>234.6756587346624</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H7" t="n">
-        <v>76.92728616719256</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.175505447095</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.175505447095</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1194.175505447095</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>783.1896006574877</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>365.2257925556746</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240413</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261309</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644633</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969935</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750362</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>731.0291971045606</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1577.945354755378</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.982837814967</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>850.7171392082162</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>2354.684526795312</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>1964.5451948195</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>500.820796875036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>988.7065213774114</v>
       </c>
     </row>
     <row r="17">
@@ -5515,13 +5515,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.5728295347034</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>665.5728295347034</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028583</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649431</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.2212943649431</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494733</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288846</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251885</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.583317521776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>893.6471345938689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>743.5304951815332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>595.6174015991401</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>448.7274541012297</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>280.5521324210503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>130.1341239689935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.1480540508779</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508779</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6420,16 +6420,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1111.565224087838</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.1480540508779</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4458.413529040523</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>4289.477346112616</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>4139.36070670028</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>3991.447613117887</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3844.557665619977</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3676.382343939797</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3525.964335487741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>4860.854573014292</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>4640.061993870762</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4036.945405494735</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>4036.945405494735</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3889.032311912341</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.032311912341</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3720.856990232162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.438981780105</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4036.945405494735</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>4036.945405494735</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>4036.945405494735</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>4036.945405494735</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,25 +7414,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978322</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9238900028825</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>96.03744927814824</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735875</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>295.3773510571276</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.10917441581523</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.49006577330459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.2111604889784</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15.75279013640011</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>14.65425235751468</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>53.88857771785982</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>26.71213136157559</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.4883350175783</v>
       </c>
     </row>
     <row r="20">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>157.2098466618496</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>77.83138328065137</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>154.8974597170421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2121017489008</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>183.1841667000327</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>44.27839330891752</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>96.29904972659767</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2484934794766929</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.96703739368824</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711682.083108422</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.083108422</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173334</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173335</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="G2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="H2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114796</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663652</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.471986959</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372988.0138302837</v>
+        <v>-378028.9421038206</v>
       </c>
       <c r="C6" t="n">
-        <v>216979.8653842607</v>
+        <v>211938.9371107239</v>
       </c>
       <c r="D6" t="n">
-        <v>216979.8653842607</v>
+        <v>211938.937110724</v>
       </c>
       <c r="E6" t="n">
-        <v>250607.4653842607</v>
+        <v>-203035.6575952937</v>
       </c>
       <c r="F6" t="n">
-        <v>250607.4653842608</v>
+        <v>322124.3788816022</v>
       </c>
       <c r="G6" t="n">
-        <v>-177081.5711250411</v>
+        <v>322124.3788816021</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816021</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816025</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.7509487309</v>
+        <v>145701.1596890094</v>
       </c>
       <c r="K6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816022</v>
       </c>
       <c r="L6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="M6" t="n">
-        <v>323098.9701413241</v>
+        <v>187323.3636477652</v>
       </c>
       <c r="N6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="O6" t="n">
-        <v>192924.4981543651</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="P6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816024</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370136</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990173</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990173</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990173</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>38.30379047625252</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.74592769735756</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>262.3136113017806</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>10.67409010993481</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>11.35761644348383</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>278.7330645958074</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>406.4618263286143</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296118</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>544.6350560131518</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359742.074468367</v>
+        <v>1379155.59001417</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>3522967.675855584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11161499.13848754</v>
+        <v>10100942.61497029</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.9341481798011</v>
+        <v>106.3580520294097</v>
       </c>
     </row>
     <row r="3">
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4249611444376</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25.36135220843562</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.4705587190144</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>275.4666232302528</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.801690848279786</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>317.0781683602001</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.728253158928</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>275.1653818931072</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>136.1667043524295</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.1777278244226</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>37.28178038475323</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125.9434024640775</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>59.06889940579497</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.09631833451652</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>182.8586770955457</v>
       </c>
       <c r="W22" t="n">
-        <v>129.3131516747414</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>16.50281054245883</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.37255160319397</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>189.3264363399662</v>
       </c>
       <c r="W34" t="n">
-        <v>103.3388316365583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>129.4106056624395</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.839337685766</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>127.6176159584065</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>56.38106363456459</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.4350995402963</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1311.034939604418</v>
+        <v>1278.657628994267</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>551.822117562146</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>382.8223173004784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.912423534854</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.912423534854</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.912423534854</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>945.12417093661</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>534.1382661470025</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.512263598976</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124031</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124031</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124031</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>56.77297257620262</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>56.77297257620262</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>56.77297257620262</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>183.9715203647362</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>183.9715203647362</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>450.1841540113767</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>450.1841540113767</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113767</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>3562.04763072251</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3347.247768990221</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3093.556065735372</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>2762.493178391801</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2409.724523121687</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2036.258764860607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>1646.119432884795</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>843.6704145912399</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1484.215764058344</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426789</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045606</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="X13" t="n">
-        <v>731.0291971045606</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.0291971045606</v>
+        <v>240.6726419207948</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>3661.931392306022</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>3661.931392306022</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>3408.239689051173</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3077.176801707602</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>2724.408146437488</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>2350.942388176408</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2350.942388176408</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701559</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766198</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1253.562877620962</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.623401105981</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>861.4909633328887</v>
+        <v>456.8481761101108</v>
       </c>
       <c r="C16" t="n">
-        <v>692.5547804049818</v>
+        <v>287.9119931822039</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>638.4966409403505</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.7065213774114</v>
+        <v>638.4966409403505</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5527,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.542980734167</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126628</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655735</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>955.1031435655735</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
         <v>265.3924131404652</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="W22" t="n">
-        <v>879.2482765610114</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="X22" t="n">
-        <v>879.2482765610114</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.2482765610114</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,25 +6226,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1482.246764959459</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>1192.829594922498</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,13 +6454,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6469,25 +6469,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1301850426789</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>1018.548807185636</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.613602254709</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="X34" t="n">
-        <v>966.6240513566914</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>685.4820831915234</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>535.3654437791877</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>387.4523501967946</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.9183786307682</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7848,10 +7848,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978322</v>
+        <v>186.2236012992138</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>96.03744927814824</v>
+        <v>48.10560617264136</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>279.8798866266438</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>329.3216894122473</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22944,28 +22944,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>11.05637510633818</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>149.1296253965815</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.58154910012288</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>18.48618277571083</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.65425235751468</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>1.906738228337929</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>117.3711067433871</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.88857771785982</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>89.54657361241739</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.4883350175783</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>69.27896622828226</v>
       </c>
       <c r="W22" t="n">
-        <v>157.2098466618496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>130.6844047393607</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>235.6348327813692</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.2121017489008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>62.81120698386184</v>
       </c>
       <c r="W34" t="n">
-        <v>183.1841667000327</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>235.0037727845411</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.29904972659767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.58171033716523</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.96703739368824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>92.23440938364777</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.6193013649</v>
+        <v>826633.0799895162</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952727.6193013648</v>
+        <v>826633.0799895162</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114795</v>
+        <v>371509.2212626556</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114796</v>
+        <v>371509.2212626556</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114797</v>
@@ -26346,13 +26346,13 @@
         <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659105</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965289</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038206</v>
+        <v>-373594.8552048656</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.9371107239</v>
+        <v>216373.0240096788</v>
       </c>
       <c r="D6" t="n">
-        <v>211938.937110724</v>
+        <v>216373.0240096788</v>
       </c>
       <c r="E6" t="n">
-        <v>-203035.6575952937</v>
+        <v>37119.95043317127</v>
       </c>
       <c r="F6" t="n">
-        <v>322124.3788816022</v>
+        <v>285266.7190520137</v>
       </c>
       <c r="G6" t="n">
-        <v>322124.3788816021</v>
+        <v>59238.6217494414</v>
       </c>
       <c r="H6" t="n">
-        <v>322124.3788816021</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="I6" t="n">
-        <v>322124.3788816025</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="J6" t="n">
-        <v>145701.1596890094</v>
+        <v>146578.2918227589</v>
       </c>
       <c r="K6" t="n">
-        <v>322124.3788816022</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="L6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="M6" t="n">
-        <v>187323.3636477652</v>
+        <v>260548.455125699</v>
       </c>
       <c r="N6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153516</v>
       </c>
       <c r="O6" t="n">
-        <v>322124.3788816024</v>
+        <v>253136.6261654404</v>
       </c>
       <c r="P6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153519</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26764,10 +26764,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.30379047625252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10.74592769735756</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>262.3136113017806</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.8258083455521</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>10.67409010993481</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.35761644348383</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958074</v>
+        <v>324.839356870621</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>109.7875025528264</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>406.4618263286143</v>
+        <v>229.4160469348675</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37633,16 +37633,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
